--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13713,6 +13713,230 @@
         <v>333.1723076923077</v>
       </c>
       <c r="H468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>330.96</v>
+      </c>
+      <c r="C469" t="n">
+        <v>326.32</v>
+      </c>
+      <c r="D469" t="n">
+        <v>322.08</v>
+      </c>
+      <c r="E469" t="n">
+        <v>322.1409090909091</v>
+      </c>
+      <c r="F469" t="n">
+        <v>317.8869230769231</v>
+      </c>
+      <c r="G469" t="n">
+        <v>321.9369230769231</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>327.35</v>
+      </c>
+      <c r="C470" t="n">
+        <v>330.6188888888889</v>
+      </c>
+      <c r="D470" t="n">
+        <v>331</v>
+      </c>
+      <c r="E470" t="n">
+        <v>333.4763636363636</v>
+      </c>
+      <c r="F470" t="n">
+        <v>331.2384615384615</v>
+      </c>
+      <c r="G470" t="n">
+        <v>325.5484615384615</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:55:01+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="n">
+        <v>309.0133333333333</v>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>330.18</v>
+      </c>
+      <c r="C472" t="n">
+        <v>340.4822222222222</v>
+      </c>
+      <c r="D472" t="n">
+        <v>340.49</v>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="C473" t="n">
+        <v>326.6322222222223</v>
+      </c>
+      <c r="D473" t="n">
+        <v>332.96</v>
+      </c>
+      <c r="E473" t="n">
+        <v>328.4118181818182</v>
+      </c>
+      <c r="F473" t="n">
+        <v>326.9138461538461</v>
+      </c>
+      <c r="G473" t="n">
+        <v>331.2738461538461</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>348.83</v>
+      </c>
+      <c r="C474" t="n">
+        <v>349.5733333333333</v>
+      </c>
+      <c r="D474" t="n">
+        <v>335.12</v>
+      </c>
+      <c r="E474" t="n">
+        <v>326.9127272727272</v>
+      </c>
+      <c r="F474" t="n">
+        <v>329.7261538461539</v>
+      </c>
+      <c r="G474" t="n">
+        <v>339.2861538461539</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="C475" t="n">
+        <v>327.6666666666667</v>
+      </c>
+      <c r="D475" t="n">
+        <v>332.89</v>
+      </c>
+      <c r="E475" t="n">
+        <v>335.2736363636364</v>
+      </c>
+      <c r="F475" t="n">
+        <v>338.8384615384616</v>
+      </c>
+      <c r="G475" t="n">
+        <v>336.9984615384615</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>316.77</v>
+      </c>
+      <c r="C476" t="n">
+        <v>328.3644444444445</v>
+      </c>
+      <c r="D476" t="n">
+        <v>336.09</v>
+      </c>
+      <c r="E476" t="n">
+        <v>343.2218181818182</v>
+      </c>
+      <c r="F476" t="n">
+        <v>348.8746153846154</v>
+      </c>
+      <c r="G476" t="n">
+        <v>345.6446153846153</v>
+      </c>
+      <c r="H476" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13729,7 +13953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18727,6 +18951,86 @@
       </c>
       <c r="B499" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -18895,28 +19199,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.685549466383321</v>
+        <v>-2.655942684469714</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7761889660628289</v>
+        <v>0.7733578711703214</v>
       </c>
       <c r="M2" t="n">
-        <v>8.541803195311143</v>
+        <v>8.564812713580578</v>
       </c>
       <c r="N2" t="n">
-        <v>116.795553838384</v>
+        <v>117.8455019069607</v>
       </c>
       <c r="O2" t="n">
-        <v>10.80719916714705</v>
+        <v>10.85566681079337</v>
       </c>
       <c r="P2" t="n">
-        <v>387.1339027126974</v>
+        <v>386.8485524961201</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18972,28 +19276,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.495025534284985</v>
+        <v>-2.468316065323981</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8073098381285727</v>
+        <v>0.8029740482732683</v>
       </c>
       <c r="M3" t="n">
-        <v>7.245626326389415</v>
+        <v>7.307665776771219</v>
       </c>
       <c r="N3" t="n">
-        <v>82.16904953543285</v>
+        <v>84.03090329765759</v>
       </c>
       <c r="O3" t="n">
-        <v>9.064714531381165</v>
+        <v>9.1668371479839</v>
       </c>
       <c r="P3" t="n">
-        <v>385.4125948723101</v>
+        <v>385.1512024550358</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19049,28 +19353,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.267080028820687</v>
+        <v>-2.255211894322176</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7831432578512001</v>
+        <v>0.7848569657813675</v>
       </c>
       <c r="M4" t="n">
-        <v>6.599373103060853</v>
+        <v>6.586481736470756</v>
       </c>
       <c r="N4" t="n">
-        <v>78.24580095895301</v>
+        <v>77.67564541185492</v>
       </c>
       <c r="O4" t="n">
-        <v>8.845665659460176</v>
+        <v>8.813378773878661</v>
       </c>
       <c r="P4" t="n">
-        <v>386.5725564371905</v>
+        <v>386.4546932665064</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19126,28 +19430,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.149151834546582</v>
+        <v>-2.149911858766914</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8175862582642536</v>
+        <v>0.8198997441491376</v>
       </c>
       <c r="M5" t="n">
-        <v>5.836509968658833</v>
+        <v>5.836233041730254</v>
       </c>
       <c r="N5" t="n">
-        <v>58.96589288230101</v>
+        <v>58.79048138105759</v>
       </c>
       <c r="O5" t="n">
-        <v>7.678925242656098</v>
+        <v>7.667495117772009</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5609718810028</v>
+        <v>386.5677204194782</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19203,28 +19507,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.142169729076804</v>
+        <v>-2.137028170280814</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7639128951932699</v>
+        <v>0.7647089833911306</v>
       </c>
       <c r="M6" t="n">
-        <v>6.574777523656796</v>
+        <v>6.581458045323106</v>
       </c>
       <c r="N6" t="n">
-        <v>80.17401598337389</v>
+        <v>80.45640655860913</v>
       </c>
       <c r="O6" t="n">
-        <v>8.953994414973348</v>
+        <v>8.969749525968332</v>
       </c>
       <c r="P6" t="n">
-        <v>384.780318916147</v>
+        <v>384.7301868479742</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19280,28 +19584,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.918435544066001</v>
+        <v>-1.914259906804513</v>
       </c>
       <c r="J7" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L7" t="n">
-        <v>0.754391877214778</v>
+        <v>0.7557565023846393</v>
       </c>
       <c r="M7" t="n">
-        <v>5.964231175054278</v>
+        <v>5.983580256166822</v>
       </c>
       <c r="N7" t="n">
-        <v>67.46539774073379</v>
+        <v>67.51023022869659</v>
       </c>
       <c r="O7" t="n">
-        <v>8.213732266195057</v>
+        <v>8.216460930881166</v>
       </c>
       <c r="P7" t="n">
-        <v>380.7788085520193</v>
+        <v>380.7371317061517</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19338,7 +19642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37462,6 +37766,310 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-41.1536541665682,176.02777965624423</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-41.1539026080622,176.02694098049474</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-41.154154274151004,176.02610441986684</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-41.15444062680249,176.0252905975238</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-41.154692177244776,176.02445396348014</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-41.155010700655275,176.0236612303953</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-41.15362505120477,176.02776057052472</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-41.15393727956925,176.02696370812885</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-41.154226216209196,176.0261515783035</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-41.15453205041914,176.02535052560518</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-41.15479986152142,176.02452454957185</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-41.15503982892686,176.02368032350762</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-15 21:55:01+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-41.153763025842274,176.02684948278025</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-41.153647875714384,176.0277755324585</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-41.15401682955312,176.02701585430896</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-41.15430275543571,176.02620175034505</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-41.15358319282228,176.02773313152932</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-41.15390512620492,176.02694263116982</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-41.154242024102224,176.0261619404855</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-41.15449120344588,176.02532375043415</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-41.15476498217,176.0245016864352</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-41.155086006070235,176.02371059192157</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-41.153798291592715,176.02787413345703</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-41.154090151366844,176.02706391796482</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-41.15425944504423,176.02617336003902</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-41.15447911285766,176.02531582506705</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-41.15478766429599,176.0245165543846</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-41.15515062799737,176.02375295069487</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-41.15359520996953,176.02774100900217</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-41.15391346923274,176.02694810013344</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-41.15424145953464,176.0261615704075</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-41.15454654592369,176.0253600274108</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-41.15486115784233,176.02456472889094</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-41.155132176999764,176.02374085631283</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-41.153539721391525,176.02770463519278</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-41.15391909696776,176.02695178918813</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-41.154267268337186,176.02617848826648</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-41.15461065020977,176.02540204784054</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-41.15494210246166,176.0246177876714</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-41.15520191109145,176.02378656611913</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -19044,7 +19044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19135,35 +19135,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19222,27 +19227,28 @@
       <c r="P2" t="n">
         <v>386.8485524961201</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.02602997560766 -41.15098489264503, 176.0307919323515 -41.15824902603283)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.0260299756077</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.15098489264503</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.0307919323515</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.15824902603283</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.0284109539796</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.15461695933892</v>
       </c>
     </row>
@@ -19299,27 +19305,28 @@
       <c r="P3" t="n">
         <v>385.1512024550358</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.02521584399705 -41.1512707477236, 176.02997775786827 -41.158534894742466)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.025215843997</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.1512707477236</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.0299777578683</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.15853489474247</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.0275968009327</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.15490282123304</v>
       </c>
     </row>
@@ -19376,27 +19383,28 @@
       <c r="P4" t="n">
         <v>386.4546932665064</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.024401712387 -41.15155660155592, 176.02916358338396 -41.158820762205096)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.024401712387</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.15155660155592</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.029163583384</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.1588207622051</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.0267826478855</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.1551886818805</v>
       </c>
     </row>
@@ -19453,27 +19461,28 @@
       <c r="P5" t="n">
         <v>386.5677204194782</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.02358758077753 -41.15184245414195, 176.02834940889846 -41.159106628420695)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.0235875807775</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.15184245414195</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.0283494088985</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.15910662842069</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.025968494838</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.15547454128132</v>
       </c>
     </row>
@@ -19530,27 +19539,28 @@
       <c r="P6" t="n">
         <v>384.7301868479742</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.0227734491686 -41.15212830548172, 176.02753523441186 -41.15939249338931)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.0227734491686</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.15212830548172</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.0275352344119</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.15939249338931</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.0251543417902</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.15576039943551</v>
       </c>
     </row>
@@ -19607,27 +19617,28 @@
       <c r="P7" t="n">
         <v>380.7371317061517</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.02195931756026 -41.15241415557522, 176.02672105992406 -41.15967835711092)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.0219593175603</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.15241415557522</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.0267210599241</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.15967835711092</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.0243401887421</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.15604625634307</v>
       </c>
     </row>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13937,6 +13937,36 @@
         <v>345.6446153846153</v>
       </c>
       <c r="H476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>320.46</v>
+      </c>
+      <c r="C477" t="n">
+        <v>327.9144444444445</v>
+      </c>
+      <c r="D477" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="E477" t="n">
+        <v>345.5472727272727</v>
+      </c>
+      <c r="F477" t="n">
+        <v>344.6030769230769</v>
+      </c>
+      <c r="G477" t="n">
+        <v>336.6530769230769</v>
+      </c>
+      <c r="H477" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13953,7 +13983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19031,6 +19061,16 @@
       </c>
       <c r="B507" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19204,28 +19244,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.655942684469714</v>
+        <v>-2.655172095178563</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7733578711703214</v>
+        <v>0.7740546158404619</v>
       </c>
       <c r="M2" t="n">
-        <v>8.564812713580578</v>
+        <v>8.548036835088176</v>
       </c>
       <c r="N2" t="n">
-        <v>117.8455019069607</v>
+        <v>117.5653964186294</v>
       </c>
       <c r="O2" t="n">
-        <v>10.85566681079337</v>
+        <v>10.84275778658868</v>
       </c>
       <c r="P2" t="n">
-        <v>386.8485524961201</v>
+        <v>386.8410262007719</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19282,28 +19322,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.468316065323981</v>
+        <v>-2.46569014409423</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8029740482732683</v>
+        <v>0.8031784021334928</v>
       </c>
       <c r="M3" t="n">
-        <v>7.307665776771219</v>
+        <v>7.303869418223449</v>
       </c>
       <c r="N3" t="n">
-        <v>84.03090329765759</v>
+        <v>83.9187176815731</v>
       </c>
       <c r="O3" t="n">
-        <v>9.1668371479839</v>
+        <v>9.160716002669938</v>
       </c>
       <c r="P3" t="n">
-        <v>385.1512024550358</v>
+        <v>385.1252155690686</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19360,28 +19400,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.255211894322176</v>
+        <v>-2.252847821852273</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7848569657813675</v>
+        <v>0.7850771468410456</v>
       </c>
       <c r="M4" t="n">
-        <v>6.586481736470756</v>
+        <v>6.583624468178211</v>
       </c>
       <c r="N4" t="n">
-        <v>77.67564541185492</v>
+        <v>77.563920711994</v>
       </c>
       <c r="O4" t="n">
-        <v>8.813378773878661</v>
+        <v>8.807038135036887</v>
       </c>
       <c r="P4" t="n">
-        <v>386.4546932665064</v>
+        <v>386.4309840043169</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19438,28 +19478,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.149911858766914</v>
+        <v>-2.143671001694576</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8198997441491376</v>
+        <v>0.8184666557315264</v>
       </c>
       <c r="M5" t="n">
-        <v>5.836233041730254</v>
+        <v>5.855058829109007</v>
       </c>
       <c r="N5" t="n">
-        <v>58.79048138105759</v>
+        <v>59.13891263195404</v>
       </c>
       <c r="O5" t="n">
-        <v>7.667495117772009</v>
+        <v>7.69018287376536</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5677204194782</v>
+        <v>386.5069428601264</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19516,28 +19556,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.137028170280814</v>
+        <v>-2.130681193844349</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7647089833911306</v>
+        <v>0.7633228397594183</v>
       </c>
       <c r="M6" t="n">
-        <v>6.581458045323106</v>
+        <v>6.593682428653781</v>
       </c>
       <c r="N6" t="n">
-        <v>80.45640655860913</v>
+        <v>80.77281577135091</v>
       </c>
       <c r="O6" t="n">
-        <v>8.969749525968332</v>
+        <v>8.987369791621513</v>
       </c>
       <c r="P6" t="n">
-        <v>384.7301868479742</v>
+        <v>384.6686729010361</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19594,28 +19634,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.914259906804513</v>
+        <v>-1.911938226709766</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7557565023846393</v>
+        <v>0.7560037032701141</v>
       </c>
       <c r="M7" t="n">
-        <v>5.983580256166822</v>
+        <v>5.980046113056146</v>
       </c>
       <c r="N7" t="n">
-        <v>67.51023022869659</v>
+        <v>67.39981710550362</v>
       </c>
       <c r="O7" t="n">
-        <v>8.216460930881166</v>
+        <v>8.209739161843306</v>
       </c>
       <c r="P7" t="n">
-        <v>380.7371317061517</v>
+        <v>380.7142370182335</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19653,7 +19693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38081,6 +38121,48 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-41.15356948198235,176.02772414381226</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-41.153915467616386,176.02694941010026</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-41.1542515410985,176.02616817894452</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-41.15462940564071,176.02541434206444</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-41.15490765121438,176.02459520503757</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-41.1551293913581,176.02373903036266</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H477"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13967,6 +13967,126 @@
         <v>336.6530769230769</v>
       </c>
       <c r="H477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>344.31</v>
+      </c>
+      <c r="C478" t="n">
+        <v>333.9066666666667</v>
+      </c>
+      <c r="D478" t="n">
+        <v>331.52</v>
+      </c>
+      <c r="E478" t="n">
+        <v>336.61</v>
+      </c>
+      <c r="F478" t="n">
+        <v>342.4530769230769</v>
+      </c>
+      <c r="G478" t="n">
+        <v>338.1130769230769</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>329.38</v>
+      </c>
+      <c r="C479" t="n">
+        <v>328.4788888888889</v>
+      </c>
+      <c r="D479" t="n">
+        <v>328.81</v>
+      </c>
+      <c r="E479" t="n">
+        <v>328.6136363636364</v>
+      </c>
+      <c r="F479" t="n">
+        <v>332.83</v>
+      </c>
+      <c r="G479" t="n">
+        <v>333.22</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>327.09</v>
+      </c>
+      <c r="C480" t="n">
+        <v>329.7144444444444</v>
+      </c>
+      <c r="D480" t="n">
+        <v>332.41</v>
+      </c>
+      <c r="E480" t="n">
+        <v>331.4827272727272</v>
+      </c>
+      <c r="F480" t="n">
+        <v>334.9115384615384</v>
+      </c>
+      <c r="G480" t="n">
+        <v>336.8115384615385</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>335.28</v>
+      </c>
+      <c r="C481" t="n">
+        <v>334.0566666666667</v>
+      </c>
+      <c r="D481" t="n">
+        <v>336.42</v>
+      </c>
+      <c r="E481" t="n">
+        <v>334.8745454545455</v>
+      </c>
+      <c r="F481" t="n">
+        <v>337.9546153846153</v>
+      </c>
+      <c r="G481" t="n">
+        <v>332.1546153846153</v>
+      </c>
+      <c r="H481" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13983,7 +14103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19071,6 +19191,46 @@
       </c>
       <c r="B508" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -19244,28 +19404,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.655172095178563</v>
+        <v>-2.628069148128165</v>
       </c>
       <c r="J2" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7740546158404619</v>
+        <v>0.7696475967349552</v>
       </c>
       <c r="M2" t="n">
-        <v>8.548036835088176</v>
+        <v>8.609253193230368</v>
       </c>
       <c r="N2" t="n">
-        <v>117.5653964186294</v>
+        <v>119.1313095490955</v>
       </c>
       <c r="O2" t="n">
-        <v>10.84275778658868</v>
+        <v>10.91472901858289</v>
       </c>
       <c r="P2" t="n">
-        <v>386.8410262007719</v>
+        <v>386.5748243993646</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19322,28 +19482,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.46569014409423</v>
+        <v>-2.448817621157047</v>
       </c>
       <c r="J3" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8031784021334928</v>
+        <v>0.8020055926607498</v>
       </c>
       <c r="M3" t="n">
-        <v>7.303869418223449</v>
+        <v>7.322282806119108</v>
       </c>
       <c r="N3" t="n">
-        <v>83.9187176815731</v>
+        <v>84.08926300175584</v>
       </c>
       <c r="O3" t="n">
-        <v>9.160716002669938</v>
+        <v>9.170019792876994</v>
       </c>
       <c r="P3" t="n">
-        <v>385.1252155690686</v>
+        <v>384.9572740178746</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19400,28 +19560,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.252847821852273</v>
+        <v>-2.246300516563003</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7850771468410456</v>
+        <v>0.7865512868231173</v>
       </c>
       <c r="M4" t="n">
-        <v>6.583624468178211</v>
+        <v>6.556830406497761</v>
       </c>
       <c r="N4" t="n">
-        <v>77.563920711994</v>
+        <v>77.04635746719894</v>
       </c>
       <c r="O4" t="n">
-        <v>8.807038135036887</v>
+        <v>8.777605451784613</v>
       </c>
       <c r="P4" t="n">
-        <v>386.4309840043169</v>
+        <v>386.3649087322876</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19478,28 +19638,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.143671001694576</v>
+        <v>-2.140881850917701</v>
       </c>
       <c r="J5" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8184666557315264</v>
+        <v>0.8204675982977891</v>
       </c>
       <c r="M5" t="n">
-        <v>5.855058829109007</v>
+        <v>5.825352898137867</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13891263195404</v>
+        <v>58.67204217670277</v>
       </c>
       <c r="O5" t="n">
-        <v>7.69018287376536</v>
+        <v>7.659767762582804</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5069428601264</v>
+        <v>386.4796237763115</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19556,28 +19716,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.130681193844349</v>
+        <v>-2.118365138536315</v>
       </c>
       <c r="J6" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7633228397594183</v>
+        <v>0.7631572850524411</v>
       </c>
       <c r="M6" t="n">
-        <v>6.593682428653781</v>
+        <v>6.586882501540674</v>
       </c>
       <c r="N6" t="n">
-        <v>80.77281577135091</v>
+        <v>80.61725494359207</v>
       </c>
       <c r="O6" t="n">
-        <v>8.987369791621513</v>
+        <v>8.978711207272013</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6686729010361</v>
+        <v>384.5486419599699</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19634,28 +19794,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.911938226709766</v>
+        <v>-1.905386428862683</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7560037032701141</v>
+        <v>0.7576836561336581</v>
       </c>
       <c r="M7" t="n">
-        <v>5.980046113056146</v>
+        <v>5.952220607152617</v>
       </c>
       <c r="N7" t="n">
-        <v>67.39981710550362</v>
+        <v>66.89788350172135</v>
       </c>
       <c r="O7" t="n">
-        <v>8.209739161843306</v>
+        <v>8.179112635348737</v>
       </c>
       <c r="P7" t="n">
-        <v>380.7142370182335</v>
+        <v>380.6492744543893</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19693,7 +19853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H477"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38163,6 +38323,174 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-41.153761836922854,176.02785023655017</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-41.15396379623375,176.02698109017436</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-41.15423041014011,176.02615432745333</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-41.154557324067575,176.02536709248915</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-41.15489031081322,176.02458383849515</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-41.155141166742915,176.02374674896816</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-41.15364142355642,176.0277713029355</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-41.15392001998798,176.02695239424017</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-41.154208553306965,176.02614000015726</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-41.154492831166024,176.02532481740317</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-41.15481269776656,176.0245329636354</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-41.15510170245023,176.02372088067096</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-41.15362295425323,176.02775919593068</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-41.15392998502156,176.02695892645343</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-41.154237588213995,176.02615903272982</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-41.1545159711861,176.02533998567108</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-41.15482948601065,176.02454396821082</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-41.15513066940306,176.0237398681037</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-41.15368900821686,176.0278024956878</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-41.15396500601729,176.02698188320483</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-41.15426992986976,176.0261802329215</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-41.154543327144566,176.02535791750014</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-41.15485402935407,176.0245600562111</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-41.15509310976805,176.0237152482917</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14087,6 +14087,88 @@
         <v>332.1546153846153</v>
       </c>
       <c r="H481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>304.62</v>
+      </c>
+      <c r="C482" t="n">
+        <v>313.1544444444444</v>
+      </c>
+      <c r="D482" t="n">
+        <v>318.14</v>
+      </c>
+      <c r="E482" t="n">
+        <v>326.9818181818182</v>
+      </c>
+      <c r="F482" t="n">
+        <v>323.8453846153847</v>
+      </c>
+      <c r="G482" t="n">
+        <v>328.3453846153847</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>306.42</v>
+      </c>
+      <c r="C483" t="n">
+        <v>320.85</v>
+      </c>
+      <c r="D483" t="n">
+        <v>325.86</v>
+      </c>
+      <c r="E483" t="n">
+        <v>332.7481818181818</v>
+      </c>
+      <c r="F483" t="n">
+        <v>326.8476923076923</v>
+      </c>
+      <c r="G483" t="n">
+        <v>329.6776923076923</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>333.45</v>
+      </c>
+      <c r="C484" t="n">
+        <v>332.2866666666667</v>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14103,7 +14185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19231,6 +19313,36 @@
       </c>
       <c r="B512" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -19404,28 +19516,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.628069148128165</v>
+        <v>-2.633081334062442</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7696475967349552</v>
+        <v>0.7706834357528707</v>
       </c>
       <c r="M2" t="n">
-        <v>8.609253193230368</v>
+        <v>8.646744981083957</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1313095490955</v>
+        <v>119.6386606574457</v>
       </c>
       <c r="O2" t="n">
-        <v>10.91472901858289</v>
+        <v>10.93794590667945</v>
       </c>
       <c r="P2" t="n">
-        <v>386.5748243993646</v>
+        <v>386.6240988226304</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19482,28 +19594,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.448817621157047</v>
+        <v>-2.448373950226757</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8020055926607498</v>
+        <v>0.803192354344911</v>
       </c>
       <c r="M3" t="n">
-        <v>7.322282806119108</v>
+        <v>7.317856944341864</v>
       </c>
       <c r="N3" t="n">
-        <v>84.08926300175584</v>
+        <v>83.93693512917288</v>
       </c>
       <c r="O3" t="n">
-        <v>9.170019792876994</v>
+        <v>9.161710273151671</v>
       </c>
       <c r="P3" t="n">
-        <v>384.9572740178746</v>
+        <v>384.9527892586225</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19560,28 +19672,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.246300516563003</v>
+        <v>-2.251637400085239</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7865512868231173</v>
+        <v>0.7882045148174621</v>
       </c>
       <c r="M4" t="n">
-        <v>6.556830406497761</v>
+        <v>6.556964288239483</v>
       </c>
       <c r="N4" t="n">
-        <v>77.04635746719894</v>
+        <v>76.94542803933425</v>
       </c>
       <c r="O4" t="n">
-        <v>8.777605451784613</v>
+        <v>8.771854310197716</v>
       </c>
       <c r="P4" t="n">
-        <v>386.3649087322876</v>
+        <v>386.4188714349712</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19638,28 +19750,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.140881850917701</v>
+        <v>-2.142062713254166</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K5" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8204675982977891</v>
+        <v>0.821810215194257</v>
       </c>
       <c r="M5" t="n">
-        <v>5.825352898137867</v>
+        <v>5.811254457258488</v>
       </c>
       <c r="N5" t="n">
-        <v>58.67204217670277</v>
+        <v>58.43321844021096</v>
       </c>
       <c r="O5" t="n">
-        <v>7.659767762582804</v>
+        <v>7.644162376625117</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4796237763115</v>
+        <v>386.4912202681898</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19716,28 +19828,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.118365138536315</v>
+        <v>-2.122186547776272</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7631572850524411</v>
+        <v>0.7651755487401994</v>
       </c>
       <c r="M6" t="n">
-        <v>6.586882501540674</v>
+        <v>6.58068899469554</v>
       </c>
       <c r="N6" t="n">
-        <v>80.61725494359207</v>
+        <v>80.34685011350106</v>
       </c>
       <c r="O6" t="n">
-        <v>8.978711207272013</v>
+        <v>8.963640449811731</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5486419599699</v>
+        <v>384.5859785616029</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19794,28 +19906,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.905386428862683</v>
+        <v>-1.907610053937927</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K7" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7576836561336581</v>
+        <v>0.7597098291751312</v>
       </c>
       <c r="M7" t="n">
-        <v>5.952220607152617</v>
+        <v>5.935311284131503</v>
       </c>
       <c r="N7" t="n">
-        <v>66.89788350172135</v>
+        <v>66.5888262203076</v>
       </c>
       <c r="O7" t="n">
-        <v>8.179112635348737</v>
+        <v>8.160197682673354</v>
       </c>
       <c r="P7" t="n">
-        <v>380.6492744543893</v>
+        <v>380.6713869783786</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19853,7 +19965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38491,6 +38603,116 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-41.15344172917361,176.02764039962364</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-41.15379642485743,176.02687137616826</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-41.154122497046025,176.02608358982906</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-41.15447967009521,176.0253161903356</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-41.154740234081814,176.02448546427826</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-41.1550623870489,176.02369511000663</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-41.153456246542,176.02764991599173</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-41.15385849127235,176.0269120613932</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-41.15418476081084,176.02612440403433</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-41.15452617742991,176.0253466758612</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-41.15476444861888,176.02450133669694</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-41.15507313255619,176.02370215352414</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-41.15367424890803,176.02779282064267</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-41.15395073057115,176.02697252544718</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14171,6 +14171,36 @@
       <c r="H484" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>335.87</v>
+      </c>
+      <c r="C485" t="n">
+        <v>336.9988888888889</v>
+      </c>
+      <c r="D485" t="n">
+        <v>335.07</v>
+      </c>
+      <c r="E485" t="n">
+        <v>333.7390909090909</v>
+      </c>
+      <c r="F485" t="n">
+        <v>334.4484615384616</v>
+      </c>
+      <c r="G485" t="n">
+        <v>333.4784615384615</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14185,7 +14215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19343,6 +19373,16 @@
       </c>
       <c r="B515" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19556,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.633081334062442</v>
+        <v>-2.625689073199548</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K2" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7706834357528707</v>
+        <v>0.7694236484646116</v>
       </c>
       <c r="M2" t="n">
-        <v>8.646744981083957</v>
+        <v>8.666790064576301</v>
       </c>
       <c r="N2" t="n">
-        <v>119.6386606574457</v>
+        <v>120.0640486909743</v>
       </c>
       <c r="O2" t="n">
-        <v>10.93794590667945</v>
+        <v>10.95737416952503</v>
       </c>
       <c r="P2" t="n">
-        <v>386.6240988226304</v>
+        <v>386.551128198189</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19594,28 +19634,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.448373950226757</v>
+        <v>-2.441976541511162</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K3" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.803192354344911</v>
+        <v>0.8020214807670952</v>
       </c>
       <c r="M3" t="n">
-        <v>7.317856944341864</v>
+        <v>7.335017569022055</v>
       </c>
       <c r="N3" t="n">
-        <v>83.93693512917288</v>
+        <v>84.28477824969742</v>
       </c>
       <c r="O3" t="n">
-        <v>9.161710273151671</v>
+        <v>9.180674171851294</v>
       </c>
       <c r="P3" t="n">
-        <v>384.9527892586225</v>
+        <v>384.888807125575</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19672,28 +19712,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.251637400085239</v>
+        <v>-2.248788151781594</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K4" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7882045148174621</v>
+        <v>0.7882516754860315</v>
       </c>
       <c r="M4" t="n">
-        <v>6.556964288239483</v>
+        <v>6.557096751236045</v>
       </c>
       <c r="N4" t="n">
-        <v>76.94542803933425</v>
+        <v>76.87494379099563</v>
       </c>
       <c r="O4" t="n">
-        <v>8.771854310197716</v>
+        <v>8.767835752966386</v>
       </c>
       <c r="P4" t="n">
-        <v>386.4188714349712</v>
+        <v>386.3899896105163</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19750,28 +19790,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.142062713254166</v>
+        <v>-2.140940817090305</v>
       </c>
       <c r="J5" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.821810215194257</v>
+        <v>0.8222624841449721</v>
       </c>
       <c r="M5" t="n">
-        <v>5.811254457258488</v>
+        <v>5.802998509396402</v>
       </c>
       <c r="N5" t="n">
-        <v>58.43321844021096</v>
+        <v>58.30634705348417</v>
       </c>
       <c r="O5" t="n">
-        <v>7.644162376625117</v>
+        <v>7.63585928717156</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4912202681898</v>
+        <v>386.4801728439866</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19828,28 +19868,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.122186547776272</v>
+        <v>-2.120207161263977</v>
       </c>
       <c r="J6" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K6" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7651755487401994</v>
+        <v>0.7655210907986154</v>
       </c>
       <c r="M6" t="n">
-        <v>6.58068899469554</v>
+        <v>6.574557975189809</v>
       </c>
       <c r="N6" t="n">
-        <v>80.34685011350106</v>
+        <v>80.21138984462806</v>
       </c>
       <c r="O6" t="n">
-        <v>8.963640449811731</v>
+        <v>8.956081165589561</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5859785616029</v>
+        <v>384.5665917138119</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19906,28 +19946,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.907610053937927</v>
+        <v>-1.906661809442133</v>
       </c>
       <c r="J7" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K7" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7597098291751312</v>
+        <v>0.7603344840465402</v>
       </c>
       <c r="M7" t="n">
-        <v>5.935311284131503</v>
+        <v>5.925127889245295</v>
       </c>
       <c r="N7" t="n">
-        <v>66.5888262203076</v>
+        <v>66.43028760535421</v>
       </c>
       <c r="O7" t="n">
-        <v>8.160197682673354</v>
+        <v>8.150477753196693</v>
       </c>
       <c r="P7" t="n">
-        <v>380.6713869783786</v>
+        <v>380.6619332399569</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19965,7 +20005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38713,6 +38753,48 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-41.153693766682345,176.02780561496564</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-41.153988735695954,176.02699743835683</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-41.15425904178171,176.02617309569743</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-41.154534169387745,176.02535191458915</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-41.1548257511538,176.02454152003796</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-41.155103787028665,176.02372224708233</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14201,6 +14201,94 @@
       <c r="H485" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>311.07</v>
+      </c>
+      <c r="C486" t="n">
+        <v>318.0755555555555</v>
+      </c>
+      <c r="D486" t="n">
+        <v>331.42</v>
+      </c>
+      <c r="E486" t="n">
+        <v>338.1181818181818</v>
+      </c>
+      <c r="F486" t="n">
+        <v>329.8053846153846</v>
+      </c>
+      <c r="G486" t="n">
+        <v>331.8053846153846</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>316.92</v>
+      </c>
+      <c r="C487" t="n">
+        <v>320.2144444444444</v>
+      </c>
+      <c r="D487" t="n">
+        <v>332.67</v>
+      </c>
+      <c r="E487" t="n">
+        <v>337.82</v>
+      </c>
+      <c r="F487" t="n">
+        <v>332.5723076923077</v>
+      </c>
+      <c r="G487" t="n">
+        <v>332.5023076923077</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:45+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="n">
+        <v>325.7666666666667</v>
+      </c>
+      <c r="D488" t="n">
+        <v>330.08</v>
+      </c>
+      <c r="E488" t="n">
+        <v>329.1281818181818</v>
+      </c>
+      <c r="F488" t="n">
+        <v>333.9407692307692</v>
+      </c>
+      <c r="G488" t="n">
+        <v>335.4307692307692</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14215,7 +14303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19383,6 +19471,36 @@
       </c>
       <c r="B516" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -19556,28 +19674,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.625689073199548</v>
+        <v>-2.629478958197758</v>
       </c>
       <c r="J2" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7694236484646116</v>
+        <v>0.7713148492753655</v>
       </c>
       <c r="M2" t="n">
-        <v>8.666790064576301</v>
+        <v>8.646575645426102</v>
       </c>
       <c r="N2" t="n">
-        <v>120.0640486909743</v>
+        <v>119.6266204388255</v>
       </c>
       <c r="O2" t="n">
-        <v>10.95737416952503</v>
+        <v>10.93739550527572</v>
       </c>
       <c r="P2" t="n">
-        <v>386.551128198189</v>
+        <v>386.5887121159953</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19634,28 +19752,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.441976541511162</v>
+        <v>-2.44220348912575</v>
       </c>
       <c r="J3" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8020214807670952</v>
+        <v>0.8039548821942091</v>
       </c>
       <c r="M3" t="n">
-        <v>7.335017569022055</v>
+        <v>7.305217362229628</v>
       </c>
       <c r="N3" t="n">
-        <v>84.28477824969742</v>
+        <v>83.77504349979075</v>
       </c>
       <c r="O3" t="n">
-        <v>9.180674171851294</v>
+        <v>9.152870779148516</v>
       </c>
       <c r="P3" t="n">
-        <v>384.888807125575</v>
+        <v>384.8910644544139</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19712,28 +19830,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.248788151781594</v>
+        <v>-2.244667769517765</v>
       </c>
       <c r="J4" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7882516754860315</v>
+        <v>0.7895727982300457</v>
       </c>
       <c r="M4" t="n">
-        <v>6.557096751236045</v>
+        <v>6.533558956553963</v>
       </c>
       <c r="N4" t="n">
-        <v>76.87494379099563</v>
+        <v>76.42548274497555</v>
       </c>
       <c r="O4" t="n">
-        <v>8.767835752966386</v>
+        <v>8.742166936462352</v>
       </c>
       <c r="P4" t="n">
-        <v>386.3899896105163</v>
+        <v>386.3480170369216</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19790,28 +19908,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.140940817090305</v>
+        <v>-2.13575431495135</v>
       </c>
       <c r="J5" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8222624841449721</v>
+        <v>0.8228743932487464</v>
       </c>
       <c r="M5" t="n">
-        <v>5.802998509396402</v>
+        <v>5.79712967828208</v>
       </c>
       <c r="N5" t="n">
-        <v>58.30634705348417</v>
+        <v>58.12494113421076</v>
       </c>
       <c r="O5" t="n">
-        <v>7.63585928717156</v>
+        <v>7.623971480416933</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4801728439866</v>
+        <v>386.4288638017228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19868,28 +19986,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.120207161263977</v>
+        <v>-2.117041106652472</v>
       </c>
       <c r="J6" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7655210907986154</v>
+        <v>0.7672196840775758</v>
       </c>
       <c r="M6" t="n">
-        <v>6.574557975189809</v>
+        <v>6.543457688845733</v>
       </c>
       <c r="N6" t="n">
-        <v>80.21138984462806</v>
+        <v>79.72048676099084</v>
       </c>
       <c r="O6" t="n">
-        <v>8.956081165589561</v>
+        <v>8.928632972689091</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5665917138119</v>
+        <v>384.5354163271235</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19946,28 +20064,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.906661809442133</v>
+        <v>-1.903939815758451</v>
       </c>
       <c r="J7" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7603344840465402</v>
+        <v>0.7621764006502942</v>
       </c>
       <c r="M7" t="n">
-        <v>5.925127889245295</v>
+        <v>5.894254935956751</v>
       </c>
       <c r="N7" t="n">
-        <v>66.43028760535421</v>
+        <v>65.97614402007424</v>
       </c>
       <c r="O7" t="n">
-        <v>8.150477753196693</v>
+        <v>8.122570037868202</v>
       </c>
       <c r="P7" t="n">
-        <v>380.6619332399569</v>
+        <v>380.6346410907757</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20005,7 +20123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38795,6 +38913,128 @@
         </is>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-41.15349374973921,176.0276744999628</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-41.153836114745644,176.0268973933207</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-41.154229603614944,176.02615379877065</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-41.15456948797219,176.02537506593757</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-41.15478830331647,176.0245169732575</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-41.15509029310536,176.02371340201032</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-41.15354093117172,176.02770542822574</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-41.15385336537215,176.0269087013052</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-41.15423968517935,176.0261604073052</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-41.15456708305319,176.0253734895111</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-41.15481061939923,176.02453160128073</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-41.155095914022475,176.02371708643986</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:45+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-41.15389814530386,176.02693805509935</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-41.15421879617738,176.02614671442393</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-41.15449698111911,176.02532753769376</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-41.154821656460165,176.02453883599495</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-41.15511953304019,176.02373256837114</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14287,6 +14287,66 @@
         <v>335.4307692307692</v>
       </c>
       <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>308.91</v>
+      </c>
+      <c r="C489" t="n">
+        <v>310.6344444444445</v>
+      </c>
+      <c r="D489" t="n">
+        <v>316.26</v>
+      </c>
+      <c r="E489" t="n">
+        <v>315.9781818181818</v>
+      </c>
+      <c r="F489" t="n">
+        <v>319.2192307692308</v>
+      </c>
+      <c r="G489" t="n">
+        <v>323.6892307692308</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>315.03</v>
+      </c>
+      <c r="C490" t="n">
+        <v>325.1322222222223</v>
+      </c>
+      <c r="D490" t="n">
+        <v>328.69</v>
+      </c>
+      <c r="E490" t="n">
+        <v>331.95</v>
+      </c>
+      <c r="F490" t="n">
+        <v>332.7415384615384</v>
+      </c>
+      <c r="G490" t="n">
+        <v>337.6215384615385</v>
+      </c>
+      <c r="H490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14303,7 +14363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19501,6 +19561,26 @@
       </c>
       <c r="B519" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -19674,28 +19754,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.629478958197758</v>
+        <v>-2.634692622321507</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7713148492753655</v>
+        <v>0.7732533297663976</v>
       </c>
       <c r="M2" t="n">
-        <v>8.646575645426102</v>
+        <v>8.634828973484872</v>
       </c>
       <c r="N2" t="n">
-        <v>119.6266204388255</v>
+        <v>119.2827245331075</v>
       </c>
       <c r="O2" t="n">
-        <v>10.93739550527572</v>
+        <v>10.92166308458137</v>
       </c>
       <c r="P2" t="n">
-        <v>386.5887121159953</v>
+        <v>386.6406747604196</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19752,28 +19832,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.44220348912575</v>
+        <v>-2.445015871893668</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8039548821942091</v>
+        <v>0.8051061175465208</v>
       </c>
       <c r="M3" t="n">
-        <v>7.305217362229628</v>
+        <v>7.305541143812878</v>
       </c>
       <c r="N3" t="n">
-        <v>83.77504349979075</v>
+        <v>83.68686504863231</v>
       </c>
       <c r="O3" t="n">
-        <v>9.152870779148516</v>
+        <v>9.148052527649385</v>
       </c>
       <c r="P3" t="n">
-        <v>384.8910644544139</v>
+        <v>384.9194316181013</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19830,28 +19910,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.244667769517765</v>
+        <v>-2.249119156977362</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7895727982300457</v>
+        <v>0.79094439053389</v>
       </c>
       <c r="M4" t="n">
-        <v>6.533558956553963</v>
+        <v>6.533542243196012</v>
       </c>
       <c r="N4" t="n">
-        <v>76.42548274497555</v>
+        <v>76.38747779246879</v>
       </c>
       <c r="O4" t="n">
-        <v>8.742166936462352</v>
+        <v>8.739993008719674</v>
       </c>
       <c r="P4" t="n">
-        <v>386.3480170369216</v>
+        <v>386.3935552383646</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19908,28 +19988,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.13575431495135</v>
+        <v>-2.141538771238313</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8228743932487464</v>
+        <v>0.8235962880960485</v>
       </c>
       <c r="M5" t="n">
-        <v>5.79712967828208</v>
+        <v>5.810066774073967</v>
       </c>
       <c r="N5" t="n">
-        <v>58.12494113421076</v>
+        <v>58.380088980326</v>
       </c>
       <c r="O5" t="n">
-        <v>7.623971480416933</v>
+        <v>7.640686420756056</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4288638017228</v>
+        <v>386.4863691637276</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19986,28 +20066,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.117041106652472</v>
+        <v>-2.119877368508359</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7672196840775758</v>
+        <v>0.7686717322504859</v>
       </c>
       <c r="M6" t="n">
-        <v>6.543457688845733</v>
+        <v>6.547388356800042</v>
       </c>
       <c r="N6" t="n">
-        <v>79.72048676099084</v>
+        <v>79.61951565368807</v>
       </c>
       <c r="O6" t="n">
-        <v>8.928632972689091</v>
+        <v>8.922976838123478</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5354163271235</v>
+        <v>384.5634336291</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20064,28 +20144,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.903939815758451</v>
+        <v>-1.904297420480777</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7621764006502942</v>
+        <v>0.7632139579181934</v>
       </c>
       <c r="M7" t="n">
-        <v>5.894254935956751</v>
+        <v>5.899943093547067</v>
       </c>
       <c r="N7" t="n">
-        <v>65.97614402007424</v>
+        <v>65.89074243557533</v>
       </c>
       <c r="O7" t="n">
-        <v>8.122570037868202</v>
+        <v>8.1173112811802</v>
       </c>
       <c r="P7" t="n">
-        <v>380.6346410907757</v>
+        <v>380.638200591077</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20123,7 +20203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39035,6 +39115,90 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-41.15347632890002,176.02766308030812</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-41.153776100477465,176.02685805333107</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-41.15410733436485,176.0260736506306</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-41.15439092266445,176.02525801659823</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-41.15470292271971,176.0244610070317</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-41.15502483360627,176.02367049431427</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-41.15352568794079,176.0276954360127</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-41.15389302836595,176.0269347008814</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-41.15420758547667,176.02613936573846</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-41.154519739871006,176.02534245604272</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-41.15481198429718,176.0245324959614</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-41.15513720232207,176.02374415034353</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14347,6 +14347,36 @@
         <v>337.6215384615385</v>
       </c>
       <c r="H490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>328.78</v>
+      </c>
+      <c r="C491" t="n">
+        <v>335.5066666666667</v>
+      </c>
+      <c r="D491" t="n">
+        <v>341.58</v>
+      </c>
+      <c r="E491" t="n">
+        <v>343.0672727272727</v>
+      </c>
+      <c r="F491" t="n">
+        <v>336.0546153846154</v>
+      </c>
+      <c r="G491" t="n">
+        <v>342.9446153846154</v>
+      </c>
+      <c r="H491" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14363,7 +14393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19581,6 +19611,16 @@
       </c>
       <c r="B521" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-09-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -20203,7 +20243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39199,6 +39239,48 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-41.153636584437834,176.02776813079382</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-41.153976700591116,176.02698954916764</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-41.154311546556954,176.02620751300032</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-41.15460940375808,176.02540123078916</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-41.15483870527496,176.0245500113763</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-41.15518013470045,176.02377229196065</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -19794,28 +19794,28 @@
         <v>0.0449</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.634692622321507</v>
+        <v>-2.63003063718546</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7732533297663976</v>
+        <v>0.7730019684081504</v>
       </c>
       <c r="M2" t="n">
-        <v>8.634828973484872</v>
+        <v>8.640214117242197</v>
       </c>
       <c r="N2" t="n">
-        <v>119.2827245331075</v>
+        <v>119.2843744170741</v>
       </c>
       <c r="O2" t="n">
-        <v>10.92166308458137</v>
+        <v>10.92173861695445</v>
       </c>
       <c r="P2" t="n">
-        <v>386.6406747604196</v>
+        <v>386.5939479618576</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19872,28 +19872,28 @@
         <v>0.0505</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.445015871893668</v>
+        <v>-2.439045936287422</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8051061175465208</v>
+        <v>0.8041181735823619</v>
       </c>
       <c r="M3" t="n">
-        <v>7.305541143812878</v>
+        <v>7.321054794014021</v>
       </c>
       <c r="N3" t="n">
-        <v>83.68686504863231</v>
+        <v>83.97280309422489</v>
       </c>
       <c r="O3" t="n">
-        <v>9.148052527649385</v>
+        <v>9.163667556946011</v>
       </c>
       <c r="P3" t="n">
-        <v>384.9194316181013</v>
+        <v>384.8588113845868</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19950,28 +19950,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.249119156977362</v>
+        <v>-2.243378090301441</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.79094439053389</v>
+        <v>0.7898368921832187</v>
       </c>
       <c r="M4" t="n">
-        <v>6.533542243196012</v>
+        <v>6.548687908433761</v>
       </c>
       <c r="N4" t="n">
-        <v>76.38747779246879</v>
+        <v>76.6564815716947</v>
       </c>
       <c r="O4" t="n">
-        <v>8.739993008719674</v>
+        <v>8.755368728482811</v>
       </c>
       <c r="P4" t="n">
-        <v>386.3935552383646</v>
+        <v>386.3344658584121</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20028,28 +20028,28 @@
         <v>0.06569999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.141538771238313</v>
+        <v>-2.136231329430937</v>
       </c>
       <c r="J5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8235962880960485</v>
+        <v>0.8225743514308004</v>
       </c>
       <c r="M5" t="n">
-        <v>5.810066774073967</v>
+        <v>5.824139850933458</v>
       </c>
       <c r="N5" t="n">
-        <v>58.380088980326</v>
+        <v>58.61720767999511</v>
       </c>
       <c r="O5" t="n">
-        <v>7.640686420756056</v>
+        <v>7.656187542112269</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4863691637276</v>
+        <v>386.4332708642812</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20106,28 +20106,28 @@
         <v>0.0859</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.119877368508359</v>
+        <v>-2.117025014069714</v>
       </c>
       <c r="J6" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7686717322504859</v>
+        <v>0.7687385643433389</v>
       </c>
       <c r="M6" t="n">
-        <v>6.547388356800042</v>
+        <v>6.545259932475672</v>
       </c>
       <c r="N6" t="n">
-        <v>79.61951565368807</v>
+        <v>79.54503701342485</v>
       </c>
       <c r="O6" t="n">
-        <v>8.922976838123478</v>
+        <v>8.918802442784841</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5634336291</v>
+        <v>384.5350721246813</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20184,28 +20184,28 @@
         <v>0.0814</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.904297420480777</v>
+        <v>-1.898965618469742</v>
       </c>
       <c r="J7" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7632139579181934</v>
+        <v>0.762029262970036</v>
       </c>
       <c r="M7" t="n">
-        <v>5.899943093547067</v>
+        <v>5.913019913768986</v>
       </c>
       <c r="N7" t="n">
-        <v>65.89074243557533</v>
+        <v>66.0887033941912</v>
       </c>
       <c r="O7" t="n">
-        <v>8.1173112811802</v>
+        <v>8.129495888072716</v>
       </c>
       <c r="P7" t="n">
-        <v>380.638200591077</v>
+        <v>380.5842032687776</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0344/nzd0344.xlsx
+++ b/data/nzd0344/nzd0344.xlsx
@@ -19785,13 +19785,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0347</v>
+        <v>0.0515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0449</v>
+        <v>0.0664</v>
       </c>
       <c r="I2" t="n">
         <v>-2.63003063718546</v>
@@ -19863,13 +19863,13 @@
         <v>0.2000000000001575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0375</v>
+        <v>0.0553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0505</v>
+        <v>0.0743</v>
       </c>
       <c r="I3" t="n">
         <v>-2.43905273248424</v>
@@ -19941,13 +19941,13 @@
         <v>0.4000000000003149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0426</v>
+        <v>0.0472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0556</v>
+        <v>0.0717</v>
       </c>
       <c r="I4" t="n">
         <v>-2.243378090301441</v>
@@ -20019,13 +20019,13 @@
         <v>0.5999999999996851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0478</v>
+        <v>0.0534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0809</v>
       </c>
       <c r="I5" t="n">
         <v>-2.136226594132657</v>
@@ -20097,13 +20097,13 @@
         <v>0.7999999999998426</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0527</v>
+        <v>0.0603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0859</v>
+        <v>0.1267</v>
       </c>
       <c r="I6" t="n">
         <v>-2.11699381276641</v>
@@ -20175,13 +20175,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0544</v>
+        <v>0.0818</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0814</v>
+        <v>0.1315</v>
       </c>
       <c r="I7" t="n">
         <v>-1.8989291804412</v>
